--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Npnt</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H2">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I2">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J2">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N2">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O2">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P2">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q2">
-        <v>0.9473635280572225</v>
+        <v>0.789371526202</v>
       </c>
       <c r="R2">
-        <v>8.526271752515001</v>
+        <v>7.104343735818</v>
       </c>
       <c r="S2">
-        <v>0.04160726605799284</v>
+        <v>0.0348660169943705</v>
       </c>
       <c r="T2">
-        <v>0.04160726605799284</v>
+        <v>0.0348660169943705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H3">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I3">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J3">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.692192</v>
       </c>
       <c r="O3">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P3">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q3">
-        <v>5.445031380995555</v>
+        <v>4.748197222496</v>
       </c>
       <c r="R3">
-        <v>49.00528242896</v>
+        <v>42.733775002464</v>
       </c>
       <c r="S3">
-        <v>0.2391403750024015</v>
+        <v>0.2097247234755259</v>
       </c>
       <c r="T3">
-        <v>0.2391403750024015</v>
+        <v>0.2097247234755259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H4">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I4">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J4">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N4">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O4">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P4">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q4">
-        <v>2.208974136905555</v>
+        <v>2.190611454318</v>
       </c>
       <c r="R4">
-        <v>19.88076723215</v>
+        <v>19.715503088862</v>
       </c>
       <c r="S4">
-        <v>0.09701595206851057</v>
+        <v>0.0967578556599329</v>
       </c>
       <c r="T4">
-        <v>0.09701595206851059</v>
+        <v>0.0967578556599329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H5">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I5">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J5">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N5">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O5">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P5">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q5">
-        <v>1.65522089469</v>
+        <v>1.777484738834</v>
       </c>
       <c r="R5">
-        <v>14.89698805221</v>
+        <v>15.997362649506</v>
       </c>
       <c r="S5">
-        <v>0.07269565917462253</v>
+        <v>0.07851032252151613</v>
       </c>
       <c r="T5">
-        <v>0.07269565917462255</v>
+        <v>0.07851032252151614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.440918333333333</v>
+        <v>2.128539</v>
       </c>
       <c r="H6">
-        <v>7.322755</v>
+        <v>6.385617</v>
       </c>
       <c r="I6">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="J6">
-        <v>0.5182826554654038</v>
+        <v>0.4682231486221785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N6">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O6">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P6">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q6">
-        <v>1.544283597358333</v>
+        <v>1.094972965562</v>
       </c>
       <c r="R6">
-        <v>13.898552376225</v>
+        <v>9.854756690058</v>
       </c>
       <c r="S6">
-        <v>0.06782340316187625</v>
+        <v>0.04836422997083299</v>
       </c>
       <c r="T6">
-        <v>0.06782340316187627</v>
+        <v>0.048364229970833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>1.81837</v>
       </c>
       <c r="I7">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J7">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N7">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O7">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P7">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q7">
-        <v>0.2352471738455556</v>
+        <v>0.2247816463311111</v>
       </c>
       <c r="R7">
-        <v>2.11722456461</v>
+        <v>2.02303481698</v>
       </c>
       <c r="S7">
-        <v>0.01033182243320614</v>
+        <v>0.009928456298279943</v>
       </c>
       <c r="T7">
-        <v>0.01033182243320614</v>
+        <v>0.009928456298279945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.81837</v>
       </c>
       <c r="I8">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J8">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.692192</v>
       </c>
       <c r="O8">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P8">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q8">
         <v>1.352097907448889</v>
@@ -948,10 +948,10 @@
         <v>12.16888116704</v>
       </c>
       <c r="S8">
-        <v>0.05938279837207674</v>
+        <v>0.05972126819165509</v>
       </c>
       <c r="T8">
-        <v>0.05938279837207675</v>
+        <v>0.0597212681916551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.81837</v>
       </c>
       <c r="I9">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J9">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N9">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O9">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P9">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q9">
-        <v>0.5485274737888889</v>
+        <v>0.6237991019800001</v>
       </c>
       <c r="R9">
-        <v>4.9367472641</v>
+        <v>5.61419191782</v>
       </c>
       <c r="S9">
-        <v>0.02409078233025925</v>
+        <v>0.02755279278358727</v>
       </c>
       <c r="T9">
-        <v>0.02409078233025926</v>
+        <v>0.02755279278358727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.81837</v>
       </c>
       <c r="I10">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J10">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N10">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O10">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P10">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q10">
-        <v>0.41102071806</v>
+        <v>0.5061570282955555</v>
       </c>
       <c r="R10">
-        <v>3.69918646254</v>
+        <v>4.55541325466</v>
       </c>
       <c r="S10">
-        <v>0.01805162207029436</v>
+        <v>0.0223566203803719</v>
       </c>
       <c r="T10">
-        <v>0.01805162207029436</v>
+        <v>0.0223566203803719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.81837</v>
       </c>
       <c r="I11">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="J11">
-        <v>0.1286987796558298</v>
+        <v>0.133331348679401</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6326649999999999</v>
+        <v>0.5144246666666666</v>
       </c>
       <c r="N11">
-        <v>1.897995</v>
+        <v>1.543274</v>
       </c>
       <c r="O11">
-        <v>0.1308618037795856</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="P11">
-        <v>0.1308618037795857</v>
+        <v>0.1032931201995298</v>
       </c>
       <c r="Q11">
-        <v>0.3834730186833333</v>
+        <v>0.3118047937088889</v>
       </c>
       <c r="R11">
-        <v>3.45125716815</v>
+        <v>2.80624314338</v>
       </c>
       <c r="S11">
-        <v>0.01684175444999333</v>
+        <v>0.01377221102550679</v>
       </c>
       <c r="T11">
-        <v>0.01684175444999334</v>
+        <v>0.01377221102550679</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H12">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I12">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J12">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3881176666666667</v>
+        <v>0.3708513333333334</v>
       </c>
       <c r="N12">
-        <v>1.164353</v>
+        <v>1.112554</v>
       </c>
       <c r="O12">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452614</v>
       </c>
       <c r="P12">
-        <v>0.08027910179751366</v>
+        <v>0.07446453063452615</v>
       </c>
       <c r="Q12">
-        <v>0.6452789989526667</v>
+        <v>0.5164007159148889</v>
       </c>
       <c r="R12">
-        <v>5.807510990574</v>
+        <v>4.647606443234</v>
       </c>
       <c r="S12">
-        <v>0.02834001330631467</v>
+        <v>0.0228090772714117</v>
       </c>
       <c r="T12">
-        <v>0.02834001330631467</v>
+        <v>0.02280907727141171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H13">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I13">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J13">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.692192</v>
       </c>
       <c r="O13">
-        <v>0.4614091798762973</v>
+        <v>0.4479161786269527</v>
       </c>
       <c r="P13">
-        <v>0.4614091798762974</v>
+        <v>0.4479161786269528</v>
       </c>
       <c r="Q13">
-        <v>3.708781576170666</v>
+        <v>3.106233710759111</v>
       </c>
       <c r="R13">
-        <v>33.379034185536</v>
+        <v>27.956103396832</v>
       </c>
       <c r="S13">
-        <v>0.1628860065018191</v>
+        <v>0.1372002837103846</v>
       </c>
       <c r="T13">
-        <v>0.1628860065018191</v>
+        <v>0.1372002837103846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H14">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I14">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J14">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9049766666666667</v>
+        <v>1.029162</v>
       </c>
       <c r="N14">
-        <v>2.71493</v>
+        <v>3.087486</v>
       </c>
       <c r="O14">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="P14">
-        <v>0.1871873408177105</v>
+        <v>0.2066490218278579</v>
       </c>
       <c r="Q14">
-        <v>1.504601536326666</v>
+        <v>1.433080983734</v>
       </c>
       <c r="R14">
-        <v>13.54141382694</v>
+        <v>12.897728853606</v>
       </c>
       <c r="S14">
-        <v>0.06608060641894069</v>
+        <v>0.06329823698301551</v>
       </c>
       <c r="T14">
-        <v>0.0660806064189407</v>
+        <v>0.06329823698301551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.662586</v>
+        <v>1.392473666666667</v>
       </c>
       <c r="H15">
-        <v>4.987757999999999</v>
+        <v>4.177421</v>
       </c>
       <c r="I15">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="J15">
-        <v>0.3530185648787664</v>
+        <v>0.306307943890216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.678114</v>
+        <v>0.8350726666666667</v>
       </c>
       <c r="N15">
-        <v>2.034342</v>
+        <v>2.505218</v>
       </c>
       <c r="O15">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="P15">
-        <v>0.1402625737288928</v>
+        <v>0.1676771487111334</v>
       </c>
       <c r="Q15">
-        <v>1.127422842804</v>
+        <v>1.162816698086445</v>
       </c>
       <c r="R15">
-        <v>10.146805585236</v>
+        <v>10.465350282778</v>
       </c>
       <c r="S15">
-        <v>0.04951529248397589</v>
+        <v>0.05136084265908125</v>
       </c>
       <c r="T15">
-        <v>0.0495152924839759</v>
+        <v>0.05136084265908126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.392473666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.177421</v>
+      </c>
+      <c r="I16">
+        <v>0.306307943890216</v>
+      </c>
+      <c r="J16">
+        <v>0.306307943890216</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5144246666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.543274</v>
+      </c>
+      <c r="O16">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="P16">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="Q16">
+        <v>0.7163228018171111</v>
+      </c>
+      <c r="R16">
+        <v>6.446905216354</v>
+      </c>
+      <c r="S16">
+        <v>0.03163950326632291</v>
+      </c>
+      <c r="T16">
+        <v>0.03163950326632291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.25657</v>
+      </c>
+      <c r="I17">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J17">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3708513333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.112554</v>
+      </c>
+      <c r="O17">
+        <v>0.07446453063452614</v>
+      </c>
+      <c r="P17">
+        <v>0.07446453063452615</v>
+      </c>
+      <c r="Q17">
+        <v>0.1553335533088889</v>
+      </c>
+      <c r="R17">
+        <v>1.39800197978</v>
+      </c>
+      <c r="S17">
+        <v>0.006860980070464002</v>
+      </c>
+      <c r="T17">
+        <v>0.006860980070464003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.25657</v>
+      </c>
+      <c r="I18">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J18">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.230730666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.692192</v>
+      </c>
+      <c r="O18">
+        <v>0.4479161786269527</v>
+      </c>
+      <c r="P18">
+        <v>0.4479161786269528</v>
+      </c>
+      <c r="Q18">
+        <v>0.934356411271111</v>
+      </c>
+      <c r="R18">
+        <v>8.40920770144</v>
+      </c>
+      <c r="S18">
+        <v>0.04126990324938711</v>
+      </c>
+      <c r="T18">
+        <v>0.04126990324938712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.662586</v>
-      </c>
-      <c r="H16">
-        <v>4.987757999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.3530185648787664</v>
-      </c>
-      <c r="J16">
-        <v>0.3530185648787664</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6326649999999999</v>
-      </c>
-      <c r="N16">
-        <v>1.897995</v>
-      </c>
-      <c r="O16">
-        <v>0.1308618037795856</v>
-      </c>
-      <c r="P16">
-        <v>0.1308618037795857</v>
-      </c>
-      <c r="Q16">
-        <v>1.05185997169</v>
-      </c>
-      <c r="R16">
-        <v>9.466739745209999</v>
-      </c>
-      <c r="S16">
-        <v>0.04619664616771605</v>
-      </c>
-      <c r="T16">
-        <v>0.04619664616771606</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.25657</v>
+      </c>
+      <c r="I19">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J19">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.029162</v>
+      </c>
+      <c r="N19">
+        <v>3.087486</v>
+      </c>
+      <c r="O19">
+        <v>0.2066490218278579</v>
+      </c>
+      <c r="P19">
+        <v>0.2066490218278579</v>
+      </c>
+      <c r="Q19">
+        <v>0.43107136478</v>
+      </c>
+      <c r="R19">
+        <v>3.87964228302</v>
+      </c>
+      <c r="S19">
+        <v>0.0190401364013222</v>
+      </c>
+      <c r="T19">
+        <v>0.0190401364013222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.25657</v>
+      </c>
+      <c r="I20">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J20">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8350726666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.505218</v>
+      </c>
+      <c r="O20">
+        <v>0.1676771487111334</v>
+      </c>
+      <c r="P20">
+        <v>0.1676771487111334</v>
+      </c>
+      <c r="Q20">
+        <v>0.3497757535844445</v>
+      </c>
+      <c r="R20">
+        <v>3.14798178226</v>
+      </c>
+      <c r="S20">
+        <v>0.01544936315016411</v>
+      </c>
+      <c r="T20">
+        <v>0.01544936315016412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4188566666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.25657</v>
+      </c>
+      <c r="I21">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="J21">
+        <v>0.09213755880820455</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5144246666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.543274</v>
+      </c>
+      <c r="O21">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="P21">
+        <v>0.1032931201995298</v>
+      </c>
+      <c r="Q21">
+        <v>0.2154702011311111</v>
+      </c>
+      <c r="R21">
+        <v>1.93923181018</v>
+      </c>
+      <c r="S21">
+        <v>0.00951717593686712</v>
+      </c>
+      <c r="T21">
+        <v>0.009517175936867121</v>
       </c>
     </row>
   </sheetData>
